--- a/Data/route_log.xlsx
+++ b/Data/route_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\臺大\CAE\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D86761-E1FC-4D15-872A-2D39D152BD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C78C015-4C5E-4C5B-844C-2270C2D0A222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18421,8 +18421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958526CE-A17C-4EF2-AA19-EB9BAD33CC15}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE25" sqref="AE25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/route_log.xlsx
+++ b/Data/route_log.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\臺大\CAE\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C78C015-4C5E-4C5B-844C-2270C2D0A222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37846EA9-B808-41E7-8075-ADD091E3BE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
     <sheet name="工作表2" sheetId="3" r:id="rId3"/>
     <sheet name="工作表3" sheetId="4" r:id="rId4"/>
+    <sheet name="工作表4" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$E$46</definedName>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="372">
   <si>
     <t>timestamp</t>
   </si>
@@ -749,6 +751,417 @@
   </si>
   <si>
     <t>2025-10-03 23:55:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 01:17:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 01:27:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 01:37:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 01:47:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 01:57:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 02:07:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 02:17:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 02:27:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 02:37:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 02:47:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 02:57:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 03:07:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 03:17:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 03:27:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 03:37:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 03:47:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 03:57:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 04:07:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 04:17:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 04:27:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 04:37:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 04:47:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 04:57:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 05:07:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 05:17:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 05:27:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 05:37:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 05:47:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 05:57:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 06:07:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 06:17:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 06:27:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 06:37:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 06:47:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 06:57:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 07:07:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 07:17:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 07:27:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 07:37:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 07:47:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 07:57:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 08:07:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 08:17:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 08:27:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 08:37:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 08:47:06</t>
+  </si>
+  <si>
+    <t>2025-10-04 08:57:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 09:07:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 09:17:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 09:27:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 09:37:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 09:47:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 09:57:01</t>
+  </si>
+  <si>
+    <t>2025-10-04 10:07:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 10:17:01</t>
+  </si>
+  <si>
+    <t>2025-10-04 10:27:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 10:37:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 10:47:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 10:57:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 11:07:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 11:17:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 11:27:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 11:37:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 11:47:06</t>
+  </si>
+  <si>
+    <t>2025-10-04 11:57:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 12:07:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 12:17:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 12:27:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 12:37:01</t>
+  </si>
+  <si>
+    <t>2025-10-04 12:47:06</t>
+  </si>
+  <si>
+    <t>2025-10-04 12:57:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 13:07:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 13:17:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 13:27:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 13:37:01</t>
+  </si>
+  <si>
+    <t>2025-10-04 13:47:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 13:57:01</t>
+  </si>
+  <si>
+    <t>2025-10-04 14:07:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 14:17:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 14:27:06</t>
+  </si>
+  <si>
+    <t>2025-10-04 14:37:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 14:47:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 14:57:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 15:07:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 15:17:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 15:27:06</t>
+  </si>
+  <si>
+    <t>2025-10-04 15:37:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 15:47:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 15:57:01</t>
+  </si>
+  <si>
+    <t>2025-10-04 16:07:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 16:17:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 16:27:01</t>
+  </si>
+  <si>
+    <t>2025-10-04 16:37:05</t>
+  </si>
+  <si>
+    <t>2025-10-04 16:47:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 16:57:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 17:07:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 17:17:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 17:27:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 17:37:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 17:47:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 17:57:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 18:07:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 18:17:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 18:27:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 18:37:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 18:47:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 18:57:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 19:07:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 19:17:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 19:27:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 19:37:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 19:47:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 19:57:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 20:07:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 20:17:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 20:27:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 20:37:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 20:47:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 20:57:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 21:07:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 21:17:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 21:27:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 21:37:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 21:47:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 21:57:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 22:07:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 22:17:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 22:27:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 22:37:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 22:47:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 22:57:05</t>
+  </si>
+  <si>
+    <t>2025-10-04 23:07:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 23:17:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 23:27:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 23:37:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 23:47:00</t>
+  </si>
+  <si>
+    <t>2025-10-04 23:57:00</t>
   </si>
 </sst>
 </file>
@@ -1840,6 +2253,1114 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[4]Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>difference_percent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>[4]Sheet1!$A$2:$A$138</c:f>
+              <c:strCache>
+                <c:ptCount val="137"/>
+                <c:pt idx="0">
+                  <c:v>2025-10-04 01:17:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2025-10-04 01:27:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025-10-04 01:37:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2025-10-04 01:47:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2025-10-04 01:57:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2025-10-04 02:07:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025-10-04 02:17:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025-10-04 02:27:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2025-10-04 02:37:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2025-10-04 02:47:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2025-10-04 02:57:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025-10-04 03:07:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2025-10-04 03:17:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2025-10-04 03:27:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2025-10-04 03:37:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025-10-04 03:47:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2025-10-04 03:57:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2025-10-04 04:07:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2025-10-04 04:17:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2025-10-04 04:27:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2025-10-04 04:37:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2025-10-04 04:47:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2025-10-04 04:57:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2025-10-04 05:07:00</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2025-10-04 05:17:00</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025-10-04 05:27:00</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2025-10-04 05:37:00</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2025-10-04 05:47:00</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2025-10-04 05:57:00</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2025-10-04 06:07:00</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025-10-04 06:17:00</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2025-10-04 06:27:00</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2025-10-04 06:37:00</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2025-10-04 06:47:00</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2025-10-04 06:57:00</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2025-10-04 07:07:00</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2025-10-04 07:17:00</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2025-10-04 07:27:00</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2025-10-04 07:37:00</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2025-10-04 07:47:00</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025-10-04 07:57:00</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2025-10-04 08:07:00</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2025-10-04 08:17:00</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2025-10-04 08:27:00</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2025-10-04 08:37:00</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2025-10-04 08:47:06</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2025-10-04 08:57:00</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2025-10-04 09:07:00</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2025-10-04 09:17:00</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2025-10-04 09:27:00</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2025-10-04 09:37:00</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2025-10-04 09:47:00</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2025-10-04 09:57:01</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2025-10-04 10:07:00</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2025-10-04 10:17:01</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2025-10-04 10:27:00</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2025-10-04 10:37:00</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2025-10-04 10:47:00</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2025-10-04 10:57:00</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2025-10-04 11:07:00</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2025-10-04 11:17:00</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2025-10-04 11:27:00</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2025-10-04 11:37:00</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2025-10-04 11:47:06</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2025-10-04 11:57:00</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2025-10-04 12:07:00</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2025-10-04 12:17:00</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2025-10-04 12:27:00</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2025-10-04 12:37:01</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2025-10-04 12:47:06</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2025-10-04 12:57:00</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2025-10-04 13:07:00</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2025-10-04 13:17:00</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2025-10-04 13:27:00</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2025-10-04 13:37:01</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2025-10-04 13:47:00</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2025-10-04 13:57:01</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2025-10-04 14:07:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2025-10-04 14:17:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2025-10-04 14:27:06</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2025-10-04 14:37:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2025-10-04 14:47:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2025-10-04 14:57:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2025-10-04 15:07:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2025-10-04 15:17:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2025-10-04 15:27:06</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2025-10-04 15:37:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2025-10-04 15:47:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2025-10-04 15:57:01</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2025-10-04 16:07:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2025-10-04 16:17:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2025-10-04 16:27:01</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2025-10-04 16:37:05</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2025-10-04 16:47:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2025-10-04 16:57:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2025-10-04 17:07:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2025-10-04 17:17:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2025-10-04 17:27:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2025-10-04 17:37:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2025-10-04 17:47:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2025-10-04 17:57:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2025-10-04 18:07:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2025-10-04 18:17:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2025-10-04 18:27:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2025-10-04 18:37:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2025-10-04 18:47:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2025-10-04 18:57:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2025-10-04 19:07:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2025-10-04 19:17:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2025-10-04 19:27:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2025-10-04 19:37:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2025-10-04 19:47:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2025-10-04 19:57:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2025-10-04 20:07:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2025-10-04 20:17:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2025-10-04 20:27:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2025-10-04 20:37:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2025-10-04 20:47:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2025-10-04 20:57:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2025-10-04 21:07:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2025-10-04 21:17:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2025-10-04 21:27:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2025-10-04 21:37:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2025-10-04 21:47:00</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2025-10-04 21:57:00</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2025-10-04 22:07:00</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2025-10-04 22:17:00</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2025-10-04 22:27:00</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2025-10-04 22:37:00</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2025-10-04 22:47:00</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2025-10-04 22:57:05</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2025-10-04 23:07:00</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2025-10-04 23:17:00</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2025-10-04 23:27:00</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2025-10-04 23:37:00</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2025-10-04 23:47:00</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2025-10-04 23:57:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[4]Sheet1!$H$2:$H$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="137"/>
+                <c:pt idx="0">
+                  <c:v>-29.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-30.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-31.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-34.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-31.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-32.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-31.69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-32.340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-35.58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-37.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-37.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-36.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-36.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-35.32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-36.61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-35.96</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-34.020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-31.82</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-35.58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-36.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-35.71</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-36.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-34.28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-34.28</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-31.69</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-30.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-26.65</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-27.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-22.77</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-28.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-30.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-35.96</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-35.58</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-32.340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-37.26</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-35.06</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-32.99</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-34.28</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-34.020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-32.99</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-34.28</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-27.55</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-28.59</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-21.09</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-24.06</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-24.32</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-21.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-23.29</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-23.03</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-25.36</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-21.09</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-21.73</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-16.95</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-18.89</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-21.73</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-17.59</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-15.52</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-15.27</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-15.01</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-8.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-11.77</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-8.15</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-11.77</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-13.07</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-13.07</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-10.35</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-13.32</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-15.52</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-17.46</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-13.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-13.32</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-18.11</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-15.52</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-15.27</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-12.29</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-19.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-17.46</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-19.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-18.89</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-16.82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-14.23</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-16.82</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-20.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-15.52</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-16.82</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-18.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-20.83</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-22.64</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-26.65</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-21.73</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-24.58</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-19.53</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-25.23</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-18.89</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-22.77</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-24.32</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-22.77</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-23.42</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-23.29</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-24.71</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-16.3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-12.42</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-19.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-21.99</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-24.32</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-23.29</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-20.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-18.11</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-19.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-22.12</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-22.38</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-22.64</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-21.99</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-23.29</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-23.67</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-23.93</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-22.38</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-27.55</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-26.26</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-30.4</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-27.94</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-31.18</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-26.65</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-27.81</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-31.18</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-32.729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-32.99</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-33.76</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-32.47</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-31.44</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-29.75</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-27.94</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-28.2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-29.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-54FB-4706-A01C-C8D0198B699A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="660226047"/>
+        <c:axId val="660227487"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="660226047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660227487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="660227487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660226047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -8187,6 +9708,1998 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[4]Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>duration_with_traffic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>[4]Sheet1!$A$2:$A$138</c:f>
+              <c:strCache>
+                <c:ptCount val="137"/>
+                <c:pt idx="0">
+                  <c:v>2025-10-04 01:17:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2025-10-04 01:27:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025-10-04 01:37:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2025-10-04 01:47:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2025-10-04 01:57:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2025-10-04 02:07:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025-10-04 02:17:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025-10-04 02:27:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2025-10-04 02:37:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2025-10-04 02:47:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2025-10-04 02:57:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025-10-04 03:07:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2025-10-04 03:17:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2025-10-04 03:27:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2025-10-04 03:37:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025-10-04 03:47:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2025-10-04 03:57:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2025-10-04 04:07:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2025-10-04 04:17:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2025-10-04 04:27:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2025-10-04 04:37:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2025-10-04 04:47:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2025-10-04 04:57:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2025-10-04 05:07:00</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2025-10-04 05:17:00</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025-10-04 05:27:00</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2025-10-04 05:37:00</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2025-10-04 05:47:00</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2025-10-04 05:57:00</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2025-10-04 06:07:00</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025-10-04 06:17:00</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2025-10-04 06:27:00</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2025-10-04 06:37:00</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2025-10-04 06:47:00</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2025-10-04 06:57:00</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2025-10-04 07:07:00</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2025-10-04 07:17:00</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2025-10-04 07:27:00</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2025-10-04 07:37:00</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2025-10-04 07:47:00</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025-10-04 07:57:00</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2025-10-04 08:07:00</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2025-10-04 08:17:00</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2025-10-04 08:27:00</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2025-10-04 08:37:00</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2025-10-04 08:47:06</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2025-10-04 08:57:00</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2025-10-04 09:07:00</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2025-10-04 09:17:00</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2025-10-04 09:27:00</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2025-10-04 09:37:00</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2025-10-04 09:47:00</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2025-10-04 09:57:01</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2025-10-04 10:07:00</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2025-10-04 10:17:01</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2025-10-04 10:27:00</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2025-10-04 10:37:00</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2025-10-04 10:47:00</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2025-10-04 10:57:00</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2025-10-04 11:07:00</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2025-10-04 11:17:00</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2025-10-04 11:27:00</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2025-10-04 11:37:00</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2025-10-04 11:47:06</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2025-10-04 11:57:00</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2025-10-04 12:07:00</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2025-10-04 12:17:00</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2025-10-04 12:27:00</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2025-10-04 12:37:01</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2025-10-04 12:47:06</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2025-10-04 12:57:00</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2025-10-04 13:07:00</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2025-10-04 13:17:00</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2025-10-04 13:27:00</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2025-10-04 13:37:01</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2025-10-04 13:47:00</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2025-10-04 13:57:01</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2025-10-04 14:07:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2025-10-04 14:17:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2025-10-04 14:27:06</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2025-10-04 14:37:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2025-10-04 14:47:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2025-10-04 14:57:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2025-10-04 15:07:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2025-10-04 15:17:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2025-10-04 15:27:06</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2025-10-04 15:37:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2025-10-04 15:47:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2025-10-04 15:57:01</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2025-10-04 16:07:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2025-10-04 16:17:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2025-10-04 16:27:01</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2025-10-04 16:37:05</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2025-10-04 16:47:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2025-10-04 16:57:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2025-10-04 17:07:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2025-10-04 17:17:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2025-10-04 17:27:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2025-10-04 17:37:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2025-10-04 17:47:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2025-10-04 17:57:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2025-10-04 18:07:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2025-10-04 18:17:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2025-10-04 18:27:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2025-10-04 18:37:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2025-10-04 18:47:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2025-10-04 18:57:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2025-10-04 19:07:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2025-10-04 19:17:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2025-10-04 19:27:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2025-10-04 19:37:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2025-10-04 19:47:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2025-10-04 19:57:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2025-10-04 20:07:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2025-10-04 20:17:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2025-10-04 20:27:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2025-10-04 20:37:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2025-10-04 20:47:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2025-10-04 20:57:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2025-10-04 21:07:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2025-10-04 21:17:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2025-10-04 21:27:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2025-10-04 21:37:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2025-10-04 21:47:00</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2025-10-04 21:57:00</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2025-10-04 22:07:00</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2025-10-04 22:17:00</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2025-10-04 22:27:00</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2025-10-04 22:37:00</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2025-10-04 22:47:00</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2025-10-04 22:57:05</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2025-10-04 23:07:00</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2025-10-04 23:17:00</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2025-10-04 23:27:00</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2025-10-04 23:37:00</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2025-10-04 23:47:00</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2025-10-04 23:57:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[4]Sheet1!$D$2:$D$138</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="137"/>
+                <c:pt idx="0">
+                  <c:v>5.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.97</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.93</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.97</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.95</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.18</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.18</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.52</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.87</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.85</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.07</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.93</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.95</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.77</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.23</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.42</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.27</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.37</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.53</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.55</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.57</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.07</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.82</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.82</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.72</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.93</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.53</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.38</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.67</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.33</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.53</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.55</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.78</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.38</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.27</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.43</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.63</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.43</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.15</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.53</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.43</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.12</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.98</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.67</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.22</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.78</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.27</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.85</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.97</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.92</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.93</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.47</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6.77</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6.03</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.85</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.93</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.15</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6.33</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5.98</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6.03</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5.93</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5.72</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5.38</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5.32</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5.67</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5.32</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>5.18</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>5.22</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>5.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C42-4AAA-A043-8981082406DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[4]Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>duration_no_traffic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>[4]Sheet1!$A$2:$A$138</c:f>
+              <c:strCache>
+                <c:ptCount val="137"/>
+                <c:pt idx="0">
+                  <c:v>2025-10-04 01:17:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2025-10-04 01:27:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025-10-04 01:37:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2025-10-04 01:47:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2025-10-04 01:57:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2025-10-04 02:07:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025-10-04 02:17:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025-10-04 02:27:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2025-10-04 02:37:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2025-10-04 02:47:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2025-10-04 02:57:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025-10-04 03:07:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2025-10-04 03:17:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2025-10-04 03:27:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2025-10-04 03:37:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025-10-04 03:47:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2025-10-04 03:57:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2025-10-04 04:07:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2025-10-04 04:17:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2025-10-04 04:27:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2025-10-04 04:37:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2025-10-04 04:47:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2025-10-04 04:57:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2025-10-04 05:07:00</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2025-10-04 05:17:00</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025-10-04 05:27:00</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2025-10-04 05:37:00</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2025-10-04 05:47:00</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2025-10-04 05:57:00</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2025-10-04 06:07:00</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025-10-04 06:17:00</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2025-10-04 06:27:00</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2025-10-04 06:37:00</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2025-10-04 06:47:00</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2025-10-04 06:57:00</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2025-10-04 07:07:00</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2025-10-04 07:17:00</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2025-10-04 07:27:00</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2025-10-04 07:37:00</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2025-10-04 07:47:00</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025-10-04 07:57:00</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2025-10-04 08:07:00</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2025-10-04 08:17:00</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2025-10-04 08:27:00</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2025-10-04 08:37:00</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2025-10-04 08:47:06</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2025-10-04 08:57:00</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2025-10-04 09:07:00</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2025-10-04 09:17:00</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2025-10-04 09:27:00</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2025-10-04 09:37:00</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2025-10-04 09:47:00</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2025-10-04 09:57:01</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2025-10-04 10:07:00</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2025-10-04 10:17:01</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2025-10-04 10:27:00</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2025-10-04 10:37:00</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2025-10-04 10:47:00</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2025-10-04 10:57:00</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2025-10-04 11:07:00</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2025-10-04 11:17:00</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2025-10-04 11:27:00</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2025-10-04 11:37:00</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2025-10-04 11:47:06</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2025-10-04 11:57:00</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2025-10-04 12:07:00</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2025-10-04 12:17:00</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2025-10-04 12:27:00</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2025-10-04 12:37:01</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2025-10-04 12:47:06</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2025-10-04 12:57:00</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2025-10-04 13:07:00</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2025-10-04 13:17:00</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2025-10-04 13:27:00</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2025-10-04 13:37:01</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2025-10-04 13:47:00</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2025-10-04 13:57:01</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2025-10-04 14:07:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2025-10-04 14:17:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2025-10-04 14:27:06</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2025-10-04 14:37:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2025-10-04 14:47:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2025-10-04 14:57:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2025-10-04 15:07:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2025-10-04 15:17:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2025-10-04 15:27:06</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2025-10-04 15:37:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2025-10-04 15:47:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2025-10-04 15:57:01</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2025-10-04 16:07:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2025-10-04 16:17:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2025-10-04 16:27:01</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2025-10-04 16:37:05</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2025-10-04 16:47:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2025-10-04 16:57:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2025-10-04 17:07:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2025-10-04 17:17:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2025-10-04 17:27:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2025-10-04 17:37:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2025-10-04 17:47:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2025-10-04 17:57:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2025-10-04 18:07:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2025-10-04 18:17:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2025-10-04 18:27:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2025-10-04 18:37:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2025-10-04 18:47:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2025-10-04 18:57:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2025-10-04 19:07:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2025-10-04 19:17:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2025-10-04 19:27:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2025-10-04 19:37:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2025-10-04 19:47:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2025-10-04 19:57:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2025-10-04 20:07:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2025-10-04 20:17:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2025-10-04 20:27:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2025-10-04 20:37:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2025-10-04 20:47:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2025-10-04 20:57:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2025-10-04 21:07:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2025-10-04 21:17:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2025-10-04 21:27:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2025-10-04 21:37:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2025-10-04 21:47:00</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2025-10-04 21:57:00</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2025-10-04 22:07:00</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2025-10-04 22:17:00</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2025-10-04 22:27:00</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2025-10-04 22:37:00</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2025-10-04 22:47:00</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2025-10-04 22:57:05</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2025-10-04 23:07:00</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2025-10-04 23:17:00</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2025-10-04 23:27:00</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2025-10-04 23:37:00</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2025-10-04 23:47:00</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2025-10-04 23:57:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[4]Sheet1!$E$2:$E$138</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="137"/>
+                <c:pt idx="0">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7C42-4AAA-A043-8981082406DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="659299471"/>
+        <c:axId val="659299951"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="659299471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="659299951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="659299951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="659299471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8388,6 +11901,86 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11484,6 +15077,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -11804,6 +16429,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>109536</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A61B9017-4C3A-4BF4-AFEA-7FA6D6E06328}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32750696-513D-4C1B-87EE-CAF6E9121188}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -14736,6 +19442,1952 @@
           </cell>
           <cell r="H141">
             <v>-28.2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="D1" t="str">
+            <v>duration_with_traffic</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>duration_no_traffic</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>difference_percent</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>2025-10-04 01:17:00</v>
+          </cell>
+          <cell r="D2">
+            <v>5.45</v>
+          </cell>
+          <cell r="E2">
+            <v>7.73</v>
+          </cell>
+          <cell r="H2">
+            <v>-29.5</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>2025-10-04 01:27:00</v>
+          </cell>
+          <cell r="D3">
+            <v>5.37</v>
+          </cell>
+          <cell r="E3">
+            <v>7.73</v>
+          </cell>
+          <cell r="H3">
+            <v>-30.53</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>2025-10-04 01:37:00</v>
+          </cell>
+          <cell r="D4">
+            <v>5.33</v>
+          </cell>
+          <cell r="E4">
+            <v>7.73</v>
+          </cell>
+          <cell r="H4">
+            <v>-31.05</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>2025-10-04 01:47:00</v>
+          </cell>
+          <cell r="D5">
+            <v>5.03</v>
+          </cell>
+          <cell r="E5">
+            <v>7.73</v>
+          </cell>
+          <cell r="H5">
+            <v>-34.93</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>2025-10-04 01:57:00</v>
+          </cell>
+          <cell r="D6">
+            <v>5.32</v>
+          </cell>
+          <cell r="E6">
+            <v>7.73</v>
+          </cell>
+          <cell r="H6">
+            <v>-31.18</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>2025-10-04 02:07:00</v>
+          </cell>
+          <cell r="D7">
+            <v>5.25</v>
+          </cell>
+          <cell r="E7">
+            <v>7.73</v>
+          </cell>
+          <cell r="H7">
+            <v>-32.08</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>2025-10-04 02:17:00</v>
+          </cell>
+          <cell r="D8">
+            <v>5.28</v>
+          </cell>
+          <cell r="E8">
+            <v>7.73</v>
+          </cell>
+          <cell r="H8">
+            <v>-31.69</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>2025-10-04 02:27:00</v>
+          </cell>
+          <cell r="D9">
+            <v>5.23</v>
+          </cell>
+          <cell r="E9">
+            <v>7.73</v>
+          </cell>
+          <cell r="H9">
+            <v>-32.340000000000003</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>2025-10-04 02:37:00</v>
+          </cell>
+          <cell r="D10">
+            <v>4.9800000000000004</v>
+          </cell>
+          <cell r="E10">
+            <v>7.73</v>
+          </cell>
+          <cell r="H10">
+            <v>-35.58</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>2025-10-04 02:47:00</v>
+          </cell>
+          <cell r="D11">
+            <v>4.83</v>
+          </cell>
+          <cell r="E11">
+            <v>7.73</v>
+          </cell>
+          <cell r="H11">
+            <v>-37.520000000000003</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>2025-10-04 02:57:00</v>
+          </cell>
+          <cell r="D12">
+            <v>4.8</v>
+          </cell>
+          <cell r="E12">
+            <v>7.73</v>
+          </cell>
+          <cell r="H12">
+            <v>-37.9</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>2025-10-04 03:07:00</v>
+          </cell>
+          <cell r="D13">
+            <v>4.87</v>
+          </cell>
+          <cell r="E13">
+            <v>7.73</v>
+          </cell>
+          <cell r="H13">
+            <v>-37</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>2025-10-04 03:17:00</v>
+          </cell>
+          <cell r="D14">
+            <v>4.88</v>
+          </cell>
+          <cell r="E14">
+            <v>7.73</v>
+          </cell>
+          <cell r="H14">
+            <v>-36.869999999999997</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>2025-10-04 03:27:00</v>
+          </cell>
+          <cell r="D15">
+            <v>4.88</v>
+          </cell>
+          <cell r="E15">
+            <v>7.73</v>
+          </cell>
+          <cell r="H15">
+            <v>-36.869999999999997</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>2025-10-04 03:37:00</v>
+          </cell>
+          <cell r="D16">
+            <v>5</v>
+          </cell>
+          <cell r="E16">
+            <v>7.73</v>
+          </cell>
+          <cell r="H16">
+            <v>-35.32</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>2025-10-04 03:47:00</v>
+          </cell>
+          <cell r="D17">
+            <v>4.9000000000000004</v>
+          </cell>
+          <cell r="E17">
+            <v>7.73</v>
+          </cell>
+          <cell r="H17">
+            <v>-36.61</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>2025-10-04 03:57:00</v>
+          </cell>
+          <cell r="D18">
+            <v>4.95</v>
+          </cell>
+          <cell r="E18">
+            <v>7.73</v>
+          </cell>
+          <cell r="H18">
+            <v>-35.96</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>2025-10-04 04:07:00</v>
+          </cell>
+          <cell r="D19">
+            <v>5.0999999999999996</v>
+          </cell>
+          <cell r="E19">
+            <v>7.73</v>
+          </cell>
+          <cell r="H19">
+            <v>-34.020000000000003</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>2025-10-04 04:17:00</v>
+          </cell>
+          <cell r="D20">
+            <v>5.27</v>
+          </cell>
+          <cell r="E20">
+            <v>7.73</v>
+          </cell>
+          <cell r="H20">
+            <v>-31.82</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>2025-10-04 04:27:00</v>
+          </cell>
+          <cell r="D21">
+            <v>4.9800000000000004</v>
+          </cell>
+          <cell r="E21">
+            <v>7.73</v>
+          </cell>
+          <cell r="H21">
+            <v>-35.58</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>2025-10-04 04:37:00</v>
+          </cell>
+          <cell r="D22">
+            <v>4.88</v>
+          </cell>
+          <cell r="E22">
+            <v>7.73</v>
+          </cell>
+          <cell r="H22">
+            <v>-36.869999999999997</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>2025-10-04 04:47:00</v>
+          </cell>
+          <cell r="D23">
+            <v>4.97</v>
+          </cell>
+          <cell r="E23">
+            <v>7.73</v>
+          </cell>
+          <cell r="H23">
+            <v>-35.71</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>2025-10-04 04:57:00</v>
+          </cell>
+          <cell r="D24">
+            <v>4.93</v>
+          </cell>
+          <cell r="E24">
+            <v>7.73</v>
+          </cell>
+          <cell r="H24">
+            <v>-36.22</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>2025-10-04 05:07:00</v>
+          </cell>
+          <cell r="D25">
+            <v>5.08</v>
+          </cell>
+          <cell r="E25">
+            <v>7.73</v>
+          </cell>
+          <cell r="H25">
+            <v>-34.28</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>2025-10-04 05:17:00</v>
+          </cell>
+          <cell r="D26">
+            <v>5.08</v>
+          </cell>
+          <cell r="E26">
+            <v>7.73</v>
+          </cell>
+          <cell r="H26">
+            <v>-34.28</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>2025-10-04 05:27:00</v>
+          </cell>
+          <cell r="D27">
+            <v>5.28</v>
+          </cell>
+          <cell r="E27">
+            <v>7.73</v>
+          </cell>
+          <cell r="H27">
+            <v>-31.69</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>2025-10-04 05:37:00</v>
+          </cell>
+          <cell r="D28">
+            <v>5.38</v>
+          </cell>
+          <cell r="E28">
+            <v>7.73</v>
+          </cell>
+          <cell r="H28">
+            <v>-30.4</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>2025-10-04 05:47:00</v>
+          </cell>
+          <cell r="D29">
+            <v>5.67</v>
+          </cell>
+          <cell r="E29">
+            <v>7.73</v>
+          </cell>
+          <cell r="H29">
+            <v>-26.65</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>2025-10-04 05:57:00</v>
+          </cell>
+          <cell r="D30">
+            <v>5.62</v>
+          </cell>
+          <cell r="E30">
+            <v>7.73</v>
+          </cell>
+          <cell r="H30">
+            <v>-27.3</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>2025-10-04 06:07:00</v>
+          </cell>
+          <cell r="D31">
+            <v>5.97</v>
+          </cell>
+          <cell r="E31">
+            <v>7.73</v>
+          </cell>
+          <cell r="H31">
+            <v>-22.77</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>2025-10-04 06:17:00</v>
+          </cell>
+          <cell r="D32">
+            <v>5.55</v>
+          </cell>
+          <cell r="E32">
+            <v>7.73</v>
+          </cell>
+          <cell r="H32">
+            <v>-28.2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>2025-10-04 06:27:00</v>
+          </cell>
+          <cell r="D33">
+            <v>5.38</v>
+          </cell>
+          <cell r="E33">
+            <v>7.73</v>
+          </cell>
+          <cell r="H33">
+            <v>-30.4</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>2025-10-04 06:37:00</v>
+          </cell>
+          <cell r="D34">
+            <v>4.95</v>
+          </cell>
+          <cell r="E34">
+            <v>7.73</v>
+          </cell>
+          <cell r="H34">
+            <v>-35.96</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>2025-10-04 06:47:00</v>
+          </cell>
+          <cell r="D35">
+            <v>4.9800000000000004</v>
+          </cell>
+          <cell r="E35">
+            <v>7.73</v>
+          </cell>
+          <cell r="H35">
+            <v>-35.58</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>2025-10-04 06:57:00</v>
+          </cell>
+          <cell r="D36">
+            <v>5.23</v>
+          </cell>
+          <cell r="E36">
+            <v>7.73</v>
+          </cell>
+          <cell r="H36">
+            <v>-32.340000000000003</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>2025-10-04 07:07:00</v>
+          </cell>
+          <cell r="D37">
+            <v>4.8499999999999996</v>
+          </cell>
+          <cell r="E37">
+            <v>7.73</v>
+          </cell>
+          <cell r="H37">
+            <v>-37.26</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>2025-10-04 07:17:00</v>
+          </cell>
+          <cell r="D38">
+            <v>5.0199999999999996</v>
+          </cell>
+          <cell r="E38">
+            <v>7.73</v>
+          </cell>
+          <cell r="H38">
+            <v>-35.06</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>2025-10-04 07:27:00</v>
+          </cell>
+          <cell r="D39">
+            <v>5.18</v>
+          </cell>
+          <cell r="E39">
+            <v>7.73</v>
+          </cell>
+          <cell r="H39">
+            <v>-32.99</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>2025-10-04 07:37:00</v>
+          </cell>
+          <cell r="D40">
+            <v>5.08</v>
+          </cell>
+          <cell r="E40">
+            <v>7.73</v>
+          </cell>
+          <cell r="H40">
+            <v>-34.28</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>2025-10-04 07:47:00</v>
+          </cell>
+          <cell r="D41">
+            <v>5.0999999999999996</v>
+          </cell>
+          <cell r="E41">
+            <v>7.73</v>
+          </cell>
+          <cell r="H41">
+            <v>-34.020000000000003</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>2025-10-04 07:57:00</v>
+          </cell>
+          <cell r="D42">
+            <v>5.18</v>
+          </cell>
+          <cell r="E42">
+            <v>7.73</v>
+          </cell>
+          <cell r="H42">
+            <v>-32.99</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>2025-10-04 08:07:00</v>
+          </cell>
+          <cell r="D43">
+            <v>5.08</v>
+          </cell>
+          <cell r="E43">
+            <v>7.73</v>
+          </cell>
+          <cell r="H43">
+            <v>-34.28</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>2025-10-04 08:17:00</v>
+          </cell>
+          <cell r="D44">
+            <v>5.6</v>
+          </cell>
+          <cell r="E44">
+            <v>7.73</v>
+          </cell>
+          <cell r="H44">
+            <v>-27.55</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>2025-10-04 08:27:00</v>
+          </cell>
+          <cell r="D45">
+            <v>5.52</v>
+          </cell>
+          <cell r="E45">
+            <v>7.73</v>
+          </cell>
+          <cell r="H45">
+            <v>-28.59</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>2025-10-04 08:37:00</v>
+          </cell>
+          <cell r="D46">
+            <v>6.1</v>
+          </cell>
+          <cell r="E46">
+            <v>7.73</v>
+          </cell>
+          <cell r="H46">
+            <v>-21.09</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>2025-10-04 08:47:06</v>
+          </cell>
+          <cell r="D47">
+            <v>5.87</v>
+          </cell>
+          <cell r="E47">
+            <v>7.73</v>
+          </cell>
+          <cell r="H47">
+            <v>-24.06</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>2025-10-04 08:57:00</v>
+          </cell>
+          <cell r="D48">
+            <v>5.85</v>
+          </cell>
+          <cell r="E48">
+            <v>7.73</v>
+          </cell>
+          <cell r="H48">
+            <v>-24.32</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>2025-10-04 09:07:00</v>
+          </cell>
+          <cell r="D49">
+            <v>6.07</v>
+          </cell>
+          <cell r="E49">
+            <v>7.73</v>
+          </cell>
+          <cell r="H49">
+            <v>-21.47</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>2025-10-04 09:17:00</v>
+          </cell>
+          <cell r="D50">
+            <v>5.93</v>
+          </cell>
+          <cell r="E50">
+            <v>7.73</v>
+          </cell>
+          <cell r="H50">
+            <v>-23.29</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>2025-10-04 09:27:00</v>
+          </cell>
+          <cell r="D51">
+            <v>5.95</v>
+          </cell>
+          <cell r="E51">
+            <v>7.73</v>
+          </cell>
+          <cell r="H51">
+            <v>-23.03</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>2025-10-04 09:37:00</v>
+          </cell>
+          <cell r="D52">
+            <v>5.77</v>
+          </cell>
+          <cell r="E52">
+            <v>7.73</v>
+          </cell>
+          <cell r="H52">
+            <v>-25.36</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>2025-10-04 09:47:00</v>
+          </cell>
+          <cell r="D53">
+            <v>6.1</v>
+          </cell>
+          <cell r="E53">
+            <v>7.73</v>
+          </cell>
+          <cell r="H53">
+            <v>-21.09</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>2025-10-04 09:57:01</v>
+          </cell>
+          <cell r="D54">
+            <v>6.05</v>
+          </cell>
+          <cell r="E54">
+            <v>7.73</v>
+          </cell>
+          <cell r="H54">
+            <v>-21.73</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>2025-10-04 10:07:00</v>
+          </cell>
+          <cell r="D55">
+            <v>6.23</v>
+          </cell>
+          <cell r="E55">
+            <v>7.73</v>
+          </cell>
+          <cell r="H55">
+            <v>-19.399999999999999</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>2025-10-04 10:17:01</v>
+          </cell>
+          <cell r="D56">
+            <v>6.42</v>
+          </cell>
+          <cell r="E56">
+            <v>7.73</v>
+          </cell>
+          <cell r="H56">
+            <v>-16.95</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>2025-10-04 10:27:00</v>
+          </cell>
+          <cell r="D57">
+            <v>6.27</v>
+          </cell>
+          <cell r="E57">
+            <v>7.73</v>
+          </cell>
+          <cell r="H57">
+            <v>-18.89</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>2025-10-04 10:37:00</v>
+          </cell>
+          <cell r="D58">
+            <v>6.05</v>
+          </cell>
+          <cell r="E58">
+            <v>7.73</v>
+          </cell>
+          <cell r="H58">
+            <v>-21.73</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>2025-10-04 10:47:00</v>
+          </cell>
+          <cell r="D59">
+            <v>6.37</v>
+          </cell>
+          <cell r="E59">
+            <v>7.73</v>
+          </cell>
+          <cell r="H59">
+            <v>-17.59</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>2025-10-04 10:57:00</v>
+          </cell>
+          <cell r="D60">
+            <v>6.53</v>
+          </cell>
+          <cell r="E60">
+            <v>7.73</v>
+          </cell>
+          <cell r="H60">
+            <v>-15.52</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>2025-10-04 11:07:00</v>
+          </cell>
+          <cell r="D61">
+            <v>6.55</v>
+          </cell>
+          <cell r="E61">
+            <v>7.73</v>
+          </cell>
+          <cell r="H61">
+            <v>-15.27</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>2025-10-04 11:17:00</v>
+          </cell>
+          <cell r="D62">
+            <v>6.57</v>
+          </cell>
+          <cell r="E62">
+            <v>7.73</v>
+          </cell>
+          <cell r="H62">
+            <v>-15.01</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>2025-10-04 11:27:00</v>
+          </cell>
+          <cell r="D63">
+            <v>7.07</v>
+          </cell>
+          <cell r="E63">
+            <v>7.73</v>
+          </cell>
+          <cell r="H63">
+            <v>-8.5399999999999991</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>2025-10-04 11:37:00</v>
+          </cell>
+          <cell r="D64">
+            <v>6.82</v>
+          </cell>
+          <cell r="E64">
+            <v>7.73</v>
+          </cell>
+          <cell r="H64">
+            <v>-11.77</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>2025-10-04 11:47:06</v>
+          </cell>
+          <cell r="D65">
+            <v>7.1</v>
+          </cell>
+          <cell r="E65">
+            <v>7.73</v>
+          </cell>
+          <cell r="H65">
+            <v>-8.15</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>2025-10-04 11:57:00</v>
+          </cell>
+          <cell r="D66">
+            <v>6.82</v>
+          </cell>
+          <cell r="E66">
+            <v>7.73</v>
+          </cell>
+          <cell r="H66">
+            <v>-11.77</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>2025-10-04 12:07:00</v>
+          </cell>
+          <cell r="D67">
+            <v>6.72</v>
+          </cell>
+          <cell r="E67">
+            <v>7.73</v>
+          </cell>
+          <cell r="H67">
+            <v>-13.07</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>2025-10-04 12:17:00</v>
+          </cell>
+          <cell r="D68">
+            <v>6.72</v>
+          </cell>
+          <cell r="E68">
+            <v>7.73</v>
+          </cell>
+          <cell r="H68">
+            <v>-13.07</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>2025-10-04 12:27:00</v>
+          </cell>
+          <cell r="D69">
+            <v>6.93</v>
+          </cell>
+          <cell r="E69">
+            <v>7.73</v>
+          </cell>
+          <cell r="H69">
+            <v>-10.35</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>2025-10-04 12:37:01</v>
+          </cell>
+          <cell r="D70">
+            <v>6.7</v>
+          </cell>
+          <cell r="E70">
+            <v>7.73</v>
+          </cell>
+          <cell r="H70">
+            <v>-13.32</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>2025-10-04 12:47:06</v>
+          </cell>
+          <cell r="D71">
+            <v>6.53</v>
+          </cell>
+          <cell r="E71">
+            <v>7.73</v>
+          </cell>
+          <cell r="H71">
+            <v>-15.52</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>2025-10-04 12:57:00</v>
+          </cell>
+          <cell r="D72">
+            <v>6.38</v>
+          </cell>
+          <cell r="E72">
+            <v>7.73</v>
+          </cell>
+          <cell r="H72">
+            <v>-17.46</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>2025-10-04 13:07:00</v>
+          </cell>
+          <cell r="D73">
+            <v>6.67</v>
+          </cell>
+          <cell r="E73">
+            <v>7.73</v>
+          </cell>
+          <cell r="H73">
+            <v>-13.71</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>2025-10-04 13:17:00</v>
+          </cell>
+          <cell r="D74">
+            <v>6.7</v>
+          </cell>
+          <cell r="E74">
+            <v>7.73</v>
+          </cell>
+          <cell r="H74">
+            <v>-13.32</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>2025-10-04 13:27:00</v>
+          </cell>
+          <cell r="D75">
+            <v>6.33</v>
+          </cell>
+          <cell r="E75">
+            <v>7.73</v>
+          </cell>
+          <cell r="H75">
+            <v>-18.11</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>2025-10-04 13:37:01</v>
+          </cell>
+          <cell r="D76">
+            <v>6.53</v>
+          </cell>
+          <cell r="E76">
+            <v>7.73</v>
+          </cell>
+          <cell r="H76">
+            <v>-15.52</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>2025-10-04 13:47:00</v>
+          </cell>
+          <cell r="D77">
+            <v>6.55</v>
+          </cell>
+          <cell r="E77">
+            <v>7.73</v>
+          </cell>
+          <cell r="H77">
+            <v>-15.27</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>2025-10-04 13:57:01</v>
+          </cell>
+          <cell r="D78">
+            <v>6.78</v>
+          </cell>
+          <cell r="E78">
+            <v>7.73</v>
+          </cell>
+          <cell r="H78">
+            <v>-12.29</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>2025-10-04 14:07:00</v>
+          </cell>
+          <cell r="D79">
+            <v>6.25</v>
+          </cell>
+          <cell r="E79">
+            <v>7.73</v>
+          </cell>
+          <cell r="H79">
+            <v>-19.149999999999999</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>2025-10-04 14:17:00</v>
+          </cell>
+          <cell r="D80">
+            <v>6.38</v>
+          </cell>
+          <cell r="E80">
+            <v>7.73</v>
+          </cell>
+          <cell r="H80">
+            <v>-17.46</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>2025-10-04 14:27:06</v>
+          </cell>
+          <cell r="D81">
+            <v>6.2</v>
+          </cell>
+          <cell r="E81">
+            <v>7.73</v>
+          </cell>
+          <cell r="H81">
+            <v>-19.79</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>2025-10-04 14:37:00</v>
+          </cell>
+          <cell r="D82">
+            <v>6.27</v>
+          </cell>
+          <cell r="E82">
+            <v>7.73</v>
+          </cell>
+          <cell r="H82">
+            <v>-18.89</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>2025-10-04 14:47:00</v>
+          </cell>
+          <cell r="D83">
+            <v>6.43</v>
+          </cell>
+          <cell r="E83">
+            <v>7.73</v>
+          </cell>
+          <cell r="H83">
+            <v>-16.82</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>2025-10-04 14:57:00</v>
+          </cell>
+          <cell r="D84">
+            <v>6.63</v>
+          </cell>
+          <cell r="E84">
+            <v>7.73</v>
+          </cell>
+          <cell r="H84">
+            <v>-14.23</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>2025-10-04 15:07:00</v>
+          </cell>
+          <cell r="D85">
+            <v>6.43</v>
+          </cell>
+          <cell r="E85">
+            <v>7.73</v>
+          </cell>
+          <cell r="H85">
+            <v>-16.82</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>2025-10-04 15:17:00</v>
+          </cell>
+          <cell r="D86">
+            <v>6.15</v>
+          </cell>
+          <cell r="E86">
+            <v>7.73</v>
+          </cell>
+          <cell r="H86">
+            <v>-20.440000000000001</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>2025-10-04 15:27:06</v>
+          </cell>
+          <cell r="D87">
+            <v>6.53</v>
+          </cell>
+          <cell r="E87">
+            <v>7.73</v>
+          </cell>
+          <cell r="H87">
+            <v>-15.52</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>2025-10-04 15:37:00</v>
+          </cell>
+          <cell r="D88">
+            <v>6.43</v>
+          </cell>
+          <cell r="E88">
+            <v>7.73</v>
+          </cell>
+          <cell r="H88">
+            <v>-16.82</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>2025-10-04 15:47:00</v>
+          </cell>
+          <cell r="D89">
+            <v>6.3</v>
+          </cell>
+          <cell r="E89">
+            <v>7.73</v>
+          </cell>
+          <cell r="H89">
+            <v>-18.5</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v>2025-10-04 15:57:01</v>
+          </cell>
+          <cell r="D90">
+            <v>6.12</v>
+          </cell>
+          <cell r="E90">
+            <v>7.73</v>
+          </cell>
+          <cell r="H90">
+            <v>-20.83</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v>2025-10-04 16:07:00</v>
+          </cell>
+          <cell r="D91">
+            <v>5.98</v>
+          </cell>
+          <cell r="E91">
+            <v>7.73</v>
+          </cell>
+          <cell r="H91">
+            <v>-22.64</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v>2025-10-04 16:17:00</v>
+          </cell>
+          <cell r="D92">
+            <v>5.67</v>
+          </cell>
+          <cell r="E92">
+            <v>7.73</v>
+          </cell>
+          <cell r="H92">
+            <v>-26.65</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>2025-10-04 16:27:01</v>
+          </cell>
+          <cell r="D93">
+            <v>6.05</v>
+          </cell>
+          <cell r="E93">
+            <v>7.73</v>
+          </cell>
+          <cell r="H93">
+            <v>-21.73</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v>2025-10-04 16:37:05</v>
+          </cell>
+          <cell r="D94">
+            <v>5.83</v>
+          </cell>
+          <cell r="E94">
+            <v>7.73</v>
+          </cell>
+          <cell r="H94">
+            <v>-24.58</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>2025-10-04 16:47:00</v>
+          </cell>
+          <cell r="D95">
+            <v>6.22</v>
+          </cell>
+          <cell r="E95">
+            <v>7.73</v>
+          </cell>
+          <cell r="H95">
+            <v>-19.53</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>2025-10-04 16:57:00</v>
+          </cell>
+          <cell r="D96">
+            <v>5.78</v>
+          </cell>
+          <cell r="E96">
+            <v>7.73</v>
+          </cell>
+          <cell r="H96">
+            <v>-25.23</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v>2025-10-04 17:07:00</v>
+          </cell>
+          <cell r="D97">
+            <v>6.27</v>
+          </cell>
+          <cell r="E97">
+            <v>7.73</v>
+          </cell>
+          <cell r="H97">
+            <v>-18.89</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98" t="str">
+            <v>2025-10-04 17:17:00</v>
+          </cell>
+          <cell r="D98">
+            <v>5.97</v>
+          </cell>
+          <cell r="E98">
+            <v>7.73</v>
+          </cell>
+          <cell r="H98">
+            <v>-22.77</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v>2025-10-04 17:27:00</v>
+          </cell>
+          <cell r="D99">
+            <v>5.85</v>
+          </cell>
+          <cell r="E99">
+            <v>7.73</v>
+          </cell>
+          <cell r="H99">
+            <v>-24.32</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100" t="str">
+            <v>2025-10-04 17:37:00</v>
+          </cell>
+          <cell r="D100">
+            <v>5.97</v>
+          </cell>
+          <cell r="E100">
+            <v>7.73</v>
+          </cell>
+          <cell r="H100">
+            <v>-22.77</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v>2025-10-04 17:47:00</v>
+          </cell>
+          <cell r="D101">
+            <v>5.92</v>
+          </cell>
+          <cell r="E101">
+            <v>7.73</v>
+          </cell>
+          <cell r="H101">
+            <v>-23.42</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102" t="str">
+            <v>2025-10-04 17:57:00</v>
+          </cell>
+          <cell r="D102">
+            <v>5.93</v>
+          </cell>
+          <cell r="E102">
+            <v>7.73</v>
+          </cell>
+          <cell r="H102">
+            <v>-23.29</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
+            <v>2025-10-04 18:07:00</v>
+          </cell>
+          <cell r="D103">
+            <v>5.82</v>
+          </cell>
+          <cell r="E103">
+            <v>7.73</v>
+          </cell>
+          <cell r="H103">
+            <v>-24.71</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104" t="str">
+            <v>2025-10-04 18:17:00</v>
+          </cell>
+          <cell r="D104">
+            <v>6.47</v>
+          </cell>
+          <cell r="E104">
+            <v>7.73</v>
+          </cell>
+          <cell r="H104">
+            <v>-16.3</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
+            <v>2025-10-04 18:27:00</v>
+          </cell>
+          <cell r="D105">
+            <v>6.77</v>
+          </cell>
+          <cell r="E105">
+            <v>7.73</v>
+          </cell>
+          <cell r="H105">
+            <v>-12.42</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106" t="str">
+            <v>2025-10-04 18:37:00</v>
+          </cell>
+          <cell r="D106">
+            <v>6.25</v>
+          </cell>
+          <cell r="E106">
+            <v>7.73</v>
+          </cell>
+          <cell r="H106">
+            <v>-19.149999999999999</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107" t="str">
+            <v>2025-10-04 18:47:00</v>
+          </cell>
+          <cell r="D107">
+            <v>6.03</v>
+          </cell>
+          <cell r="E107">
+            <v>7.73</v>
+          </cell>
+          <cell r="H107">
+            <v>-21.99</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108" t="str">
+            <v>2025-10-04 18:57:00</v>
+          </cell>
+          <cell r="D108">
+            <v>5.85</v>
+          </cell>
+          <cell r="E108">
+            <v>7.73</v>
+          </cell>
+          <cell r="H108">
+            <v>-24.32</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109" t="str">
+            <v>2025-10-04 19:07:00</v>
+          </cell>
+          <cell r="D109">
+            <v>5.93</v>
+          </cell>
+          <cell r="E109">
+            <v>7.73</v>
+          </cell>
+          <cell r="H109">
+            <v>-23.29</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110" t="str">
+            <v>2025-10-04 19:17:00</v>
+          </cell>
+          <cell r="D110">
+            <v>6.15</v>
+          </cell>
+          <cell r="E110">
+            <v>7.73</v>
+          </cell>
+          <cell r="H110">
+            <v>-20.440000000000001</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111" t="str">
+            <v>2025-10-04 19:27:00</v>
+          </cell>
+          <cell r="D111">
+            <v>6.33</v>
+          </cell>
+          <cell r="E111">
+            <v>7.73</v>
+          </cell>
+          <cell r="H111">
+            <v>-18.11</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112" t="str">
+            <v>2025-10-04 19:37:00</v>
+          </cell>
+          <cell r="D112">
+            <v>6.25</v>
+          </cell>
+          <cell r="E112">
+            <v>7.73</v>
+          </cell>
+          <cell r="H112">
+            <v>-19.149999999999999</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113" t="str">
+            <v>2025-10-04 19:47:00</v>
+          </cell>
+          <cell r="D113">
+            <v>6.02</v>
+          </cell>
+          <cell r="E113">
+            <v>7.73</v>
+          </cell>
+          <cell r="H113">
+            <v>-22.12</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114" t="str">
+            <v>2025-10-04 19:57:00</v>
+          </cell>
+          <cell r="D114">
+            <v>6</v>
+          </cell>
+          <cell r="E114">
+            <v>7.73</v>
+          </cell>
+          <cell r="H114">
+            <v>-22.38</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115" t="str">
+            <v>2025-10-04 20:07:00</v>
+          </cell>
+          <cell r="D115">
+            <v>5.98</v>
+          </cell>
+          <cell r="E115">
+            <v>7.73</v>
+          </cell>
+          <cell r="H115">
+            <v>-22.64</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116" t="str">
+            <v>2025-10-04 20:17:00</v>
+          </cell>
+          <cell r="D116">
+            <v>6.03</v>
+          </cell>
+          <cell r="E116">
+            <v>7.73</v>
+          </cell>
+          <cell r="H116">
+            <v>-21.99</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117" t="str">
+            <v>2025-10-04 20:27:00</v>
+          </cell>
+          <cell r="D117">
+            <v>5.93</v>
+          </cell>
+          <cell r="E117">
+            <v>7.73</v>
+          </cell>
+          <cell r="H117">
+            <v>-23.29</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118" t="str">
+            <v>2025-10-04 20:37:00</v>
+          </cell>
+          <cell r="D118">
+            <v>5.9</v>
+          </cell>
+          <cell r="E118">
+            <v>7.73</v>
+          </cell>
+          <cell r="H118">
+            <v>-23.67</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119" t="str">
+            <v>2025-10-04 20:47:00</v>
+          </cell>
+          <cell r="D119">
+            <v>5.88</v>
+          </cell>
+          <cell r="E119">
+            <v>7.73</v>
+          </cell>
+          <cell r="H119">
+            <v>-23.93</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120" t="str">
+            <v>2025-10-04 20:57:00</v>
+          </cell>
+          <cell r="D120">
+            <v>6</v>
+          </cell>
+          <cell r="E120">
+            <v>7.73</v>
+          </cell>
+          <cell r="H120">
+            <v>-22.38</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121" t="str">
+            <v>2025-10-04 21:07:00</v>
+          </cell>
+          <cell r="D121">
+            <v>5.6</v>
+          </cell>
+          <cell r="E121">
+            <v>7.73</v>
+          </cell>
+          <cell r="H121">
+            <v>-27.55</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122" t="str">
+            <v>2025-10-04 21:17:00</v>
+          </cell>
+          <cell r="D122">
+            <v>5.7</v>
+          </cell>
+          <cell r="E122">
+            <v>7.73</v>
+          </cell>
+          <cell r="H122">
+            <v>-26.26</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
+            <v>2025-10-04 21:27:00</v>
+          </cell>
+          <cell r="D123">
+            <v>5.72</v>
+          </cell>
+          <cell r="E123">
+            <v>7.73</v>
+          </cell>
+          <cell r="H123">
+            <v>-26</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
+            <v>2025-10-04 21:37:00</v>
+          </cell>
+          <cell r="D124">
+            <v>5.38</v>
+          </cell>
+          <cell r="E124">
+            <v>7.73</v>
+          </cell>
+          <cell r="H124">
+            <v>-30.4</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
+            <v>2025-10-04 21:47:00</v>
+          </cell>
+          <cell r="D125">
+            <v>5.57</v>
+          </cell>
+          <cell r="E125">
+            <v>7.73</v>
+          </cell>
+          <cell r="H125">
+            <v>-27.94</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126" t="str">
+            <v>2025-10-04 21:57:00</v>
+          </cell>
+          <cell r="D126">
+            <v>5.32</v>
+          </cell>
+          <cell r="E126">
+            <v>7.73</v>
+          </cell>
+          <cell r="H126">
+            <v>-31.18</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127" t="str">
+            <v>2025-10-04 22:07:00</v>
+          </cell>
+          <cell r="D127">
+            <v>5.67</v>
+          </cell>
+          <cell r="E127">
+            <v>7.73</v>
+          </cell>
+          <cell r="H127">
+            <v>-26.65</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128" t="str">
+            <v>2025-10-04 22:17:00</v>
+          </cell>
+          <cell r="D128">
+            <v>5.58</v>
+          </cell>
+          <cell r="E128">
+            <v>7.73</v>
+          </cell>
+          <cell r="H128">
+            <v>-27.81</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129" t="str">
+            <v>2025-10-04 22:27:00</v>
+          </cell>
+          <cell r="D129">
+            <v>5.32</v>
+          </cell>
+          <cell r="E129">
+            <v>7.73</v>
+          </cell>
+          <cell r="H129">
+            <v>-31.18</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130" t="str">
+            <v>2025-10-04 22:37:00</v>
+          </cell>
+          <cell r="D130">
+            <v>5.2</v>
+          </cell>
+          <cell r="E130">
+            <v>7.73</v>
+          </cell>
+          <cell r="H130">
+            <v>-32.729999999999997</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131" t="str">
+            <v>2025-10-04 22:47:00</v>
+          </cell>
+          <cell r="D131">
+            <v>5.18</v>
+          </cell>
+          <cell r="E131">
+            <v>7.73</v>
+          </cell>
+          <cell r="H131">
+            <v>-32.99</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132" t="str">
+            <v>2025-10-04 22:57:05</v>
+          </cell>
+          <cell r="D132">
+            <v>5.12</v>
+          </cell>
+          <cell r="E132">
+            <v>7.73</v>
+          </cell>
+          <cell r="H132">
+            <v>-33.76</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133" t="str">
+            <v>2025-10-04 23:07:00</v>
+          </cell>
+          <cell r="D133">
+            <v>5.22</v>
+          </cell>
+          <cell r="E133">
+            <v>7.73</v>
+          </cell>
+          <cell r="H133">
+            <v>-32.47</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134" t="str">
+            <v>2025-10-04 23:17:00</v>
+          </cell>
+          <cell r="D134">
+            <v>5.3</v>
+          </cell>
+          <cell r="E134">
+            <v>7.73</v>
+          </cell>
+          <cell r="H134">
+            <v>-31.44</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135" t="str">
+            <v>2025-10-04 23:27:00</v>
+          </cell>
+          <cell r="D135">
+            <v>5.43</v>
+          </cell>
+          <cell r="E135">
+            <v>7.73</v>
+          </cell>
+          <cell r="H135">
+            <v>-29.75</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136" t="str">
+            <v>2025-10-04 23:37:00</v>
+          </cell>
+          <cell r="D136">
+            <v>5.57</v>
+          </cell>
+          <cell r="E136">
+            <v>7.73</v>
+          </cell>
+          <cell r="H136">
+            <v>-27.94</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137" t="str">
+            <v>2025-10-04 23:47:00</v>
+          </cell>
+          <cell r="D137">
+            <v>5.55</v>
+          </cell>
+          <cell r="E137">
+            <v>7.73</v>
+          </cell>
+          <cell r="H137">
+            <v>-28.2</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="A138" t="str">
+            <v>2025-10-04 23:57:00</v>
+          </cell>
+          <cell r="D138">
+            <v>5.43</v>
+          </cell>
+          <cell r="E138">
+            <v>7.73</v>
+          </cell>
+          <cell r="H138">
+            <v>-29.75</v>
           </cell>
         </row>
       </sheetData>
@@ -18421,7 +25073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958526CE-A17C-4EF2-AA19-EB9BAD33CC15}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
@@ -21681,4 +28333,3201 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7960C6-EAF7-457E-89BC-78A9C373DD21}">
+  <dimension ref="A1:H138"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Y40" sqref="Y40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="20" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5.45</v>
+      </c>
+      <c r="E2" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-137</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-29.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="E3" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-142</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-30.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5.33</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-144</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-31.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5.03</v>
+      </c>
+      <c r="E5" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-162</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-34.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5.32</v>
+      </c>
+      <c r="E6" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-145</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-31.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5.25</v>
+      </c>
+      <c r="E7" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-149</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-32.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5.28</v>
+      </c>
+      <c r="E8" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G8" s="2">
+        <v>-147</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-31.69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5.23</v>
+      </c>
+      <c r="E9" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-150</v>
+      </c>
+      <c r="H9" s="2">
+        <v>-32.340000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E10" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-165</v>
+      </c>
+      <c r="H10" s="2">
+        <v>-35.58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4.83</v>
+      </c>
+      <c r="E11" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-174</v>
+      </c>
+      <c r="H11" s="2">
+        <v>-37.520000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="E12" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-176</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-37.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4.87</v>
+      </c>
+      <c r="E13" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-172</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="E14" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-171</v>
+      </c>
+      <c r="H14" s="2">
+        <v>-36.869999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="E15" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-171</v>
+      </c>
+      <c r="H15" s="2">
+        <v>-36.869999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G16" s="2">
+        <v>-164</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-35.32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E17" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-170</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-36.61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="E18" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-167</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-35.96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E19" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G19" s="2">
+        <v>-158</v>
+      </c>
+      <c r="H19" s="2">
+        <v>-34.020000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5.27</v>
+      </c>
+      <c r="E20" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G20" s="2">
+        <v>-148</v>
+      </c>
+      <c r="H20" s="2">
+        <v>-31.82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E21" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G21" s="2">
+        <v>-165</v>
+      </c>
+      <c r="H21" s="2">
+        <v>-35.58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="E22" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-171</v>
+      </c>
+      <c r="H22" s="2">
+        <v>-36.869999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4">
+        <v>4.97</v>
+      </c>
+      <c r="E23" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G23" s="2">
+        <v>-166</v>
+      </c>
+      <c r="H23" s="2">
+        <v>-35.71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4.93</v>
+      </c>
+      <c r="E24" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G24" s="2">
+        <v>-168</v>
+      </c>
+      <c r="H24" s="2">
+        <v>-36.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4">
+        <v>5.08</v>
+      </c>
+      <c r="E25" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G25" s="2">
+        <v>-159</v>
+      </c>
+      <c r="H25" s="2">
+        <v>-34.28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="4">
+        <v>5.08</v>
+      </c>
+      <c r="E26" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G26" s="2">
+        <v>-159</v>
+      </c>
+      <c r="H26" s="2">
+        <v>-34.28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="4">
+        <v>5.28</v>
+      </c>
+      <c r="E27" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G27" s="2">
+        <v>-147</v>
+      </c>
+      <c r="H27" s="2">
+        <v>-31.69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="4">
+        <v>5.38</v>
+      </c>
+      <c r="E28" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G28" s="2">
+        <v>-141</v>
+      </c>
+      <c r="H28" s="2">
+        <v>-30.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="4">
+        <v>5.67</v>
+      </c>
+      <c r="E29" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G29" s="2">
+        <v>-124</v>
+      </c>
+      <c r="H29" s="2">
+        <v>-26.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="4">
+        <v>5.62</v>
+      </c>
+      <c r="E30" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G30" s="2">
+        <v>-127</v>
+      </c>
+      <c r="H30" s="2">
+        <v>-27.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="4">
+        <v>5.97</v>
+      </c>
+      <c r="E31" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G31" s="2">
+        <v>-106</v>
+      </c>
+      <c r="H31" s="2">
+        <v>-22.77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="4">
+        <v>5.55</v>
+      </c>
+      <c r="E32" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G32" s="2">
+        <v>-131</v>
+      </c>
+      <c r="H32" s="2">
+        <v>-28.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="4">
+        <v>5.38</v>
+      </c>
+      <c r="E33" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G33" s="2">
+        <v>-141</v>
+      </c>
+      <c r="H33" s="2">
+        <v>-30.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="E34" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G34" s="2">
+        <v>-167</v>
+      </c>
+      <c r="H34" s="2">
+        <v>-35.96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="4">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E35" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G35" s="2">
+        <v>-165</v>
+      </c>
+      <c r="H35" s="2">
+        <v>-35.58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="4">
+        <v>5.23</v>
+      </c>
+      <c r="E36" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G36" s="2">
+        <v>-150</v>
+      </c>
+      <c r="H36" s="2">
+        <v>-32.340000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="4">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E37" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G37" s="2">
+        <v>-173</v>
+      </c>
+      <c r="H37" s="2">
+        <v>-37.26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="4">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="E38" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G38" s="2">
+        <v>-163</v>
+      </c>
+      <c r="H38" s="2">
+        <v>-35.06</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="4">
+        <v>5.18</v>
+      </c>
+      <c r="E39" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G39" s="2">
+        <v>-153</v>
+      </c>
+      <c r="H39" s="2">
+        <v>-32.99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="4">
+        <v>5.08</v>
+      </c>
+      <c r="E40" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G40" s="2">
+        <v>-159</v>
+      </c>
+      <c r="H40" s="2">
+        <v>-34.28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E41" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G41" s="2">
+        <v>-158</v>
+      </c>
+      <c r="H41" s="2">
+        <v>-34.020000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="4">
+        <v>5.18</v>
+      </c>
+      <c r="E42" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G42" s="2">
+        <v>-153</v>
+      </c>
+      <c r="H42" s="2">
+        <v>-32.99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="4">
+        <v>5.08</v>
+      </c>
+      <c r="E43" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G43" s="2">
+        <v>-159</v>
+      </c>
+      <c r="H43" s="2">
+        <v>-34.28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="E44" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G44" s="2">
+        <v>-128</v>
+      </c>
+      <c r="H44" s="2">
+        <v>-27.55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="4">
+        <v>5.52</v>
+      </c>
+      <c r="E45" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G45" s="2">
+        <v>-133</v>
+      </c>
+      <c r="H45" s="2">
+        <v>-28.59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="E46" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G46" s="2">
+        <v>-98</v>
+      </c>
+      <c r="H46" s="2">
+        <v>-21.09</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="4">
+        <v>5.87</v>
+      </c>
+      <c r="E47" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G47" s="2">
+        <v>-112</v>
+      </c>
+      <c r="H47" s="2">
+        <v>-24.06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="E48" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G48" s="2">
+        <v>-113</v>
+      </c>
+      <c r="H48" s="2">
+        <v>-24.32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="4">
+        <v>6.07</v>
+      </c>
+      <c r="E49" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G49" s="2">
+        <v>-100</v>
+      </c>
+      <c r="H49" s="2">
+        <v>-21.47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="4">
+        <v>5.93</v>
+      </c>
+      <c r="E50" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G50" s="2">
+        <v>-108</v>
+      </c>
+      <c r="H50" s="2">
+        <v>-23.29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="4">
+        <v>5.95</v>
+      </c>
+      <c r="E51" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G51" s="2">
+        <v>-107</v>
+      </c>
+      <c r="H51" s="2">
+        <v>-23.03</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="4">
+        <v>5.77</v>
+      </c>
+      <c r="E52" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G52" s="2">
+        <v>-118</v>
+      </c>
+      <c r="H52" s="2">
+        <v>-25.36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="E53" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G53" s="2">
+        <v>-98</v>
+      </c>
+      <c r="H53" s="2">
+        <v>-21.09</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="4">
+        <v>6.05</v>
+      </c>
+      <c r="E54" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G54" s="2">
+        <v>-101</v>
+      </c>
+      <c r="H54" s="2">
+        <v>-21.73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="4">
+        <v>6.23</v>
+      </c>
+      <c r="E55" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G55" s="2">
+        <v>-90</v>
+      </c>
+      <c r="H55" s="2">
+        <v>-19.399999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="4">
+        <v>6.42</v>
+      </c>
+      <c r="E56" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G56" s="2">
+        <v>-79</v>
+      </c>
+      <c r="H56" s="2">
+        <v>-16.95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="4">
+        <v>6.27</v>
+      </c>
+      <c r="E57" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G57" s="2">
+        <v>-88</v>
+      </c>
+      <c r="H57" s="2">
+        <v>-18.89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="4">
+        <v>6.05</v>
+      </c>
+      <c r="E58" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G58" s="2">
+        <v>-101</v>
+      </c>
+      <c r="H58" s="2">
+        <v>-21.73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="4">
+        <v>6.37</v>
+      </c>
+      <c r="E59" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G59" s="2">
+        <v>-82</v>
+      </c>
+      <c r="H59" s="2">
+        <v>-17.59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="4">
+        <v>6.53</v>
+      </c>
+      <c r="E60" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G60" s="2">
+        <v>-72</v>
+      </c>
+      <c r="H60" s="2">
+        <v>-15.52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="4">
+        <v>6.55</v>
+      </c>
+      <c r="E61" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G61" s="2">
+        <v>-71</v>
+      </c>
+      <c r="H61" s="2">
+        <v>-15.27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="4">
+        <v>6.57</v>
+      </c>
+      <c r="E62" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G62" s="2">
+        <v>-70</v>
+      </c>
+      <c r="H62" s="2">
+        <v>-15.01</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="4">
+        <v>7.07</v>
+      </c>
+      <c r="E63" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G63" s="2">
+        <v>-40</v>
+      </c>
+      <c r="H63" s="2">
+        <v>-8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="4">
+        <v>6.82</v>
+      </c>
+      <c r="E64" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G64" s="2">
+        <v>-55</v>
+      </c>
+      <c r="H64" s="2">
+        <v>-11.77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G65" s="2">
+        <v>-38</v>
+      </c>
+      <c r="H65" s="2">
+        <v>-8.15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="4">
+        <v>6.82</v>
+      </c>
+      <c r="E66" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G66" s="2">
+        <v>-55</v>
+      </c>
+      <c r="H66" s="2">
+        <v>-11.77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="4">
+        <v>6.72</v>
+      </c>
+      <c r="E67" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G67" s="2">
+        <v>-61</v>
+      </c>
+      <c r="H67" s="2">
+        <v>-13.07</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="4">
+        <v>6.72</v>
+      </c>
+      <c r="E68" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G68" s="2">
+        <v>-61</v>
+      </c>
+      <c r="H68" s="2">
+        <v>-13.07</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="4">
+        <v>6.93</v>
+      </c>
+      <c r="E69" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G69" s="2">
+        <v>-48</v>
+      </c>
+      <c r="H69" s="2">
+        <v>-10.35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="E70" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G70" s="2">
+        <v>-62</v>
+      </c>
+      <c r="H70" s="2">
+        <v>-13.32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="4">
+        <v>6.53</v>
+      </c>
+      <c r="E71" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G71" s="2">
+        <v>-72</v>
+      </c>
+      <c r="H71" s="2">
+        <v>-15.52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="4">
+        <v>6.38</v>
+      </c>
+      <c r="E72" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G72" s="2">
+        <v>-81</v>
+      </c>
+      <c r="H72" s="2">
+        <v>-17.46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="4">
+        <v>6.67</v>
+      </c>
+      <c r="E73" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G73" s="2">
+        <v>-64</v>
+      </c>
+      <c r="H73" s="2">
+        <v>-13.71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="E74" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G74" s="2">
+        <v>-62</v>
+      </c>
+      <c r="H74" s="2">
+        <v>-13.32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="4">
+        <v>6.33</v>
+      </c>
+      <c r="E75" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G75" s="2">
+        <v>-84</v>
+      </c>
+      <c r="H75" s="2">
+        <v>-18.11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="4">
+        <v>6.53</v>
+      </c>
+      <c r="E76" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G76" s="2">
+        <v>-72</v>
+      </c>
+      <c r="H76" s="2">
+        <v>-15.52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="4">
+        <v>6.55</v>
+      </c>
+      <c r="E77" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G77" s="2">
+        <v>-71</v>
+      </c>
+      <c r="H77" s="2">
+        <v>-15.27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="4">
+        <v>6.78</v>
+      </c>
+      <c r="E78" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G78" s="2">
+        <v>-57</v>
+      </c>
+      <c r="H78" s="2">
+        <v>-12.29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="4">
+        <v>6.25</v>
+      </c>
+      <c r="E79" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G79" s="2">
+        <v>-89</v>
+      </c>
+      <c r="H79" s="2">
+        <v>-19.149999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="4">
+        <v>6.38</v>
+      </c>
+      <c r="E80" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G80" s="2">
+        <v>-81</v>
+      </c>
+      <c r="H80" s="2">
+        <v>-17.46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="E81" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G81" s="2">
+        <v>-92</v>
+      </c>
+      <c r="H81" s="2">
+        <v>-19.79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="4">
+        <v>6.27</v>
+      </c>
+      <c r="E82" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G82" s="2">
+        <v>-88</v>
+      </c>
+      <c r="H82" s="2">
+        <v>-18.89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="4">
+        <v>6.43</v>
+      </c>
+      <c r="E83" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G83" s="2">
+        <v>-78</v>
+      </c>
+      <c r="H83" s="2">
+        <v>-16.82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="4">
+        <v>6.63</v>
+      </c>
+      <c r="E84" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G84" s="2">
+        <v>-66</v>
+      </c>
+      <c r="H84" s="2">
+        <v>-14.23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="4">
+        <v>6.43</v>
+      </c>
+      <c r="E85" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G85" s="2">
+        <v>-78</v>
+      </c>
+      <c r="H85" s="2">
+        <v>-16.82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="4">
+        <v>6.15</v>
+      </c>
+      <c r="E86" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G86" s="2">
+        <v>-95</v>
+      </c>
+      <c r="H86" s="2">
+        <v>-20.440000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="4">
+        <v>6.53</v>
+      </c>
+      <c r="E87" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G87" s="2">
+        <v>-72</v>
+      </c>
+      <c r="H87" s="2">
+        <v>-15.52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="4">
+        <v>6.43</v>
+      </c>
+      <c r="E88" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G88" s="2">
+        <v>-78</v>
+      </c>
+      <c r="H88" s="2">
+        <v>-16.82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="E89" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G89" s="2">
+        <v>-86</v>
+      </c>
+      <c r="H89" s="2">
+        <v>-18.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="4">
+        <v>6.12</v>
+      </c>
+      <c r="E90" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G90" s="2">
+        <v>-97</v>
+      </c>
+      <c r="H90" s="2">
+        <v>-20.83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="4">
+        <v>5.98</v>
+      </c>
+      <c r="E91" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G91" s="2">
+        <v>-105</v>
+      </c>
+      <c r="H91" s="2">
+        <v>-22.64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="4">
+        <v>5.67</v>
+      </c>
+      <c r="E92" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G92" s="2">
+        <v>-124</v>
+      </c>
+      <c r="H92" s="2">
+        <v>-26.65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="4">
+        <v>6.05</v>
+      </c>
+      <c r="E93" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G93" s="2">
+        <v>-101</v>
+      </c>
+      <c r="H93" s="2">
+        <v>-21.73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="4">
+        <v>5.83</v>
+      </c>
+      <c r="E94" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G94" s="2">
+        <v>-114</v>
+      </c>
+      <c r="H94" s="2">
+        <v>-24.58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="4">
+        <v>6.22</v>
+      </c>
+      <c r="E95" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G95" s="2">
+        <v>-91</v>
+      </c>
+      <c r="H95" s="2">
+        <v>-19.53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="4">
+        <v>5.78</v>
+      </c>
+      <c r="E96" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G96" s="2">
+        <v>-117</v>
+      </c>
+      <c r="H96" s="2">
+        <v>-25.23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="4">
+        <v>6.27</v>
+      </c>
+      <c r="E97" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G97" s="2">
+        <v>-88</v>
+      </c>
+      <c r="H97" s="2">
+        <v>-18.89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="4">
+        <v>5.97</v>
+      </c>
+      <c r="E98" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G98" s="2">
+        <v>-106</v>
+      </c>
+      <c r="H98" s="2">
+        <v>-22.77</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="E99" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G99" s="2">
+        <v>-113</v>
+      </c>
+      <c r="H99" s="2">
+        <v>-24.32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="4">
+        <v>5.97</v>
+      </c>
+      <c r="E100" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G100" s="2">
+        <v>-106</v>
+      </c>
+      <c r="H100" s="2">
+        <v>-22.77</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="4">
+        <v>5.92</v>
+      </c>
+      <c r="E101" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G101" s="2">
+        <v>-109</v>
+      </c>
+      <c r="H101" s="2">
+        <v>-23.42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="4">
+        <v>5.93</v>
+      </c>
+      <c r="E102" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G102" s="2">
+        <v>-108</v>
+      </c>
+      <c r="H102" s="2">
+        <v>-23.29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="4">
+        <v>5.82</v>
+      </c>
+      <c r="E103" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G103" s="2">
+        <v>-115</v>
+      </c>
+      <c r="H103" s="2">
+        <v>-24.71</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="4">
+        <v>6.47</v>
+      </c>
+      <c r="E104" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G104" s="2">
+        <v>-76</v>
+      </c>
+      <c r="H104" s="2">
+        <v>-16.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="4">
+        <v>6.77</v>
+      </c>
+      <c r="E105" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G105" s="2">
+        <v>-58</v>
+      </c>
+      <c r="H105" s="2">
+        <v>-12.42</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="4">
+        <v>6.25</v>
+      </c>
+      <c r="E106" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G106" s="2">
+        <v>-89</v>
+      </c>
+      <c r="H106" s="2">
+        <v>-19.149999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="4">
+        <v>6.03</v>
+      </c>
+      <c r="E107" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G107" s="2">
+        <v>-102</v>
+      </c>
+      <c r="H107" s="2">
+        <v>-21.99</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="E108" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G108" s="2">
+        <v>-113</v>
+      </c>
+      <c r="H108" s="2">
+        <v>-24.32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="4">
+        <v>5.93</v>
+      </c>
+      <c r="E109" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G109" s="2">
+        <v>-108</v>
+      </c>
+      <c r="H109" s="2">
+        <v>-23.29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="4">
+        <v>6.15</v>
+      </c>
+      <c r="E110" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G110" s="2">
+        <v>-95</v>
+      </c>
+      <c r="H110" s="2">
+        <v>-20.440000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="4">
+        <v>6.33</v>
+      </c>
+      <c r="E111" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G111" s="2">
+        <v>-84</v>
+      </c>
+      <c r="H111" s="2">
+        <v>-18.11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="4">
+        <v>6.25</v>
+      </c>
+      <c r="E112" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G112" s="2">
+        <v>-89</v>
+      </c>
+      <c r="H112" s="2">
+        <v>-19.149999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="4">
+        <v>6.02</v>
+      </c>
+      <c r="E113" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G113" s="2">
+        <v>-103</v>
+      </c>
+      <c r="H113" s="2">
+        <v>-22.12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="4">
+        <v>6</v>
+      </c>
+      <c r="E114" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G114" s="2">
+        <v>-104</v>
+      </c>
+      <c r="H114" s="2">
+        <v>-22.38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="4">
+        <v>5.98</v>
+      </c>
+      <c r="E115" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G115" s="2">
+        <v>-105</v>
+      </c>
+      <c r="H115" s="2">
+        <v>-22.64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="4">
+        <v>6.03</v>
+      </c>
+      <c r="E116" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G116" s="2">
+        <v>-102</v>
+      </c>
+      <c r="H116" s="2">
+        <v>-21.99</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="4">
+        <v>5.93</v>
+      </c>
+      <c r="E117" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G117" s="2">
+        <v>-108</v>
+      </c>
+      <c r="H117" s="2">
+        <v>-23.29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="E118" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G118" s="2">
+        <v>-110</v>
+      </c>
+      <c r="H118" s="2">
+        <v>-23.67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="4">
+        <v>5.88</v>
+      </c>
+      <c r="E119" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G119" s="2">
+        <v>-111</v>
+      </c>
+      <c r="H119" s="2">
+        <v>-23.93</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="4">
+        <v>6</v>
+      </c>
+      <c r="E120" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G120" s="2">
+        <v>-104</v>
+      </c>
+      <c r="H120" s="2">
+        <v>-22.38</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="E121" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G121" s="2">
+        <v>-128</v>
+      </c>
+      <c r="H121" s="2">
+        <v>-27.55</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="E122" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G122" s="2">
+        <v>-122</v>
+      </c>
+      <c r="H122" s="2">
+        <v>-26.26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="4">
+        <v>5.72</v>
+      </c>
+      <c r="E123" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G123" s="2">
+        <v>-121</v>
+      </c>
+      <c r="H123" s="2">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="4">
+        <v>5.38</v>
+      </c>
+      <c r="E124" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G124" s="2">
+        <v>-141</v>
+      </c>
+      <c r="H124" s="2">
+        <v>-30.4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="4">
+        <v>5.57</v>
+      </c>
+      <c r="E125" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G125" s="2">
+        <v>-130</v>
+      </c>
+      <c r="H125" s="2">
+        <v>-27.94</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="4">
+        <v>5.32</v>
+      </c>
+      <c r="E126" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G126" s="2">
+        <v>-145</v>
+      </c>
+      <c r="H126" s="2">
+        <v>-31.18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="4">
+        <v>5.67</v>
+      </c>
+      <c r="E127" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G127" s="2">
+        <v>-124</v>
+      </c>
+      <c r="H127" s="2">
+        <v>-26.65</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="4">
+        <v>5.58</v>
+      </c>
+      <c r="E128" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G128" s="2">
+        <v>-129</v>
+      </c>
+      <c r="H128" s="2">
+        <v>-27.81</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="4">
+        <v>5.32</v>
+      </c>
+      <c r="E129" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G129" s="2">
+        <v>-145</v>
+      </c>
+      <c r="H129" s="2">
+        <v>-31.18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="E130" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G130" s="2">
+        <v>-152</v>
+      </c>
+      <c r="H130" s="2">
+        <v>-32.729999999999997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="4">
+        <v>5.18</v>
+      </c>
+      <c r="E131" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G131" s="2">
+        <v>-153</v>
+      </c>
+      <c r="H131" s="2">
+        <v>-32.99</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="4">
+        <v>5.12</v>
+      </c>
+      <c r="E132" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G132" s="2">
+        <v>-157</v>
+      </c>
+      <c r="H132" s="2">
+        <v>-33.76</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="4">
+        <v>5.22</v>
+      </c>
+      <c r="E133" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G133" s="2">
+        <v>-151</v>
+      </c>
+      <c r="H133" s="2">
+        <v>-32.47</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="E134" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G134" s="2">
+        <v>-146</v>
+      </c>
+      <c r="H134" s="2">
+        <v>-31.44</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="4">
+        <v>5.43</v>
+      </c>
+      <c r="E135" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G135" s="2">
+        <v>-138</v>
+      </c>
+      <c r="H135" s="2">
+        <v>-29.75</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="4">
+        <v>5.57</v>
+      </c>
+      <c r="E136" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G136" s="2">
+        <v>-130</v>
+      </c>
+      <c r="H136" s="2">
+        <v>-27.94</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="4">
+        <v>5.55</v>
+      </c>
+      <c r="E137" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G137" s="2">
+        <v>-131</v>
+      </c>
+      <c r="H137" s="2">
+        <v>-28.2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="4">
+        <v>5.43</v>
+      </c>
+      <c r="E138" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G138" s="2">
+        <v>-138</v>
+      </c>
+      <c r="H138" s="2">
+        <v>-29.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>